--- a/Demo/sample.xlsx
+++ b/Demo/sample.xlsx
@@ -14,12 +14,7 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -38,6 +33,9 @@
     <t>Чел 1</t>
   </si>
   <si>
+    <t>чел 2</t>
+  </si>
+  <si>
     <t>Чел 3</t>
   </si>
   <si>
@@ -57,9 +55,6 @@
   </si>
   <si>
     <t>Чел 9</t>
-  </si>
-  <si>
-    <t>чел 2</t>
   </si>
 </sst>
 </file>
@@ -381,7 +376,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C10"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -413,7 +408,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>2000</v>
@@ -424,7 +419,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>3000</v>
@@ -435,7 +430,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>4000</v>
@@ -446,7 +441,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>5000</v>
@@ -457,7 +452,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7">
         <v>6000</v>
@@ -468,7 +463,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8">
         <v>7000</v>
@@ -479,7 +474,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9">
         <v>8000</v>
@@ -490,7 +485,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10">
         <v>9000</v>

--- a/Demo/sample.xlsx
+++ b/Demo/sample.xlsx
@@ -1,79 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Documents_User\ПРАКТИКА\Demo\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12480"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12480" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>номер</t>
-  </si>
-  <si>
-    <t>ФИО</t>
-  </si>
-  <si>
-    <t>ЗП</t>
-  </si>
-  <si>
-    <t>Чел 1</t>
-  </si>
-  <si>
-    <t>чел 2</t>
-  </si>
-  <si>
-    <t>Чел 3</t>
-  </si>
-  <si>
-    <t>Чел 4</t>
-  </si>
-  <si>
-    <t>Чел 5</t>
-  </si>
-  <si>
-    <t>Чел 6</t>
-  </si>
-  <si>
-    <t>Чел 7</t>
-  </si>
-  <si>
-    <t>Чел 8</t>
-  </si>
-  <si>
-    <t>Чел 9</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -91,22 +47,84 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -372,126 +390,176 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="23.28515625" customWidth="1" min="6" max="6"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>номер</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>ФИО</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>ЗП</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="114" customHeight="1">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Чел 1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F2" s="1" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>чел 2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="C2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Чел 3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="C3">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Чел 4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
         <v>5</v>
       </c>
-      <c r="C4">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Чел 5</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
         <v>6</v>
       </c>
-      <c r="C5">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Чел 6</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
         <v>7</v>
       </c>
-      <c r="C6">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Чел 7</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
         <v>8</v>
       </c>
-      <c r="C7">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Чел 8</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
         <v>9</v>
       </c>
-      <c r="C8">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Чел 9</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
         <v>9000</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>